--- a/テスト工程/チーム開発演習_テスト仕様書（チーム乙女）.xlsx
+++ b/テスト工程/チーム開発演習_テスト仕様書（チーム乙女）.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -91,33 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一覧</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニューに1〜8以外の番号を入力する</t>
-    <rPh sb="8" eb="10">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「1以上8以下の整数を入力してください。」と表示される</t>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NGの詳細</t>
     <rPh sb="3" eb="5">
       <t>ショウサイ</t>
@@ -125,375 +98,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>社員データが登録された状態で、メニューに1番を入力する</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社員データが0件の状態で、メニューに1番を入力する</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「社員が登録されていません」と表示される</t>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社員名検索</t>
-    <rPh sb="0" eb="3">
-      <t>シャインメイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニューに2番を入力する</t>
-    <rPh sb="6" eb="7">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「氏名または氏名(ふりがな)」を入力する状態となる</t>
-    <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「氏名または氏名(ふりがな)」に社員名ふりがなの一部を入力する</t>
-    <rPh sb="16" eb="19">
-      <t>シャインメイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「氏名または氏名(ふりがな)」に社員名の一部を入力する</t>
-    <rPh sb="16" eb="19">
-      <t>シャインメイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「氏名または氏名(ふりがな)」に、該当する社員が存在しないキーワードを入力する</t>
-    <rPh sb="17" eb="19">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「氏名または氏名(ふりがな)」に、何も入れずにエンターキーを押す</t>
-    <rPh sb="17" eb="18">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「1文字以上30文字以下の文字列を入力してください。」と表示される</t>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>部署検索</t>
-    <rPh sb="0" eb="4">
-      <t>ブショケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社員一覧（社員番号、社員名、部署）が、社員番号の昇順で表示される</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>シャインバンゴウ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>シャインメイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ブショ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ショウジュン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニューに3番を入力する</t>
-    <rPh sb="6" eb="7">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「部署番号(1：開発部、2：営業部、3：総務部)」を入力する状態となる</t>
-    <rPh sb="26" eb="28">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「部署番号(1：開発部、2：営業部、3：総務部)」に、1〜3番を入力する</t>
-    <rPh sb="30" eb="31">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「部署番号(1：開発部、2：営業部、3：総務部)」に、何も入れずにエンターキーを押す</t>
-    <rPh sb="27" eb="28">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニューに、何も入れずにエンターキーを押す</t>
-    <rPh sb="6" eb="7">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニューに、数値以外の文字（「abc」など）を入力する</t>
-    <rPh sb="6" eb="8">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「整数を入力してください。」と表示される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「1文字以上9文字以下の文字列を入力してください。」と表示される</t>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「部署番号(1：開発部、2：営業部、3：総務部)」に、数値以外の文字（「abc」など）を入力する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニューに4番を入力する</t>
-    <rPh sb="6" eb="7">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細表示</t>
-    <rPh sb="0" eb="4">
-      <t>ショウサイヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「社員番号:」と表示される</t>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「社員番号:」に、存在する社員の番号を入力する</t>
-    <rPh sb="9" eb="11">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「社員番号:」に、存在しない社員の番号を入力する</t>
-    <rPh sb="9" eb="11">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「社員番号:」に、数値以外の文字（「abc」など）を入力する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「社員番号:」に、何も入れずにエンターキーを押す</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「入力された社員番号に対応する社員は登録されていません。登録済みの社員番号を指定してください。」と表示される</t>
-    <rPh sb="49" eb="51">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当する社員の社員番号、氏名、氏名（ふりがな）、生年月日、性別、部署名が表示される。</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>シャインバンゴウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="24" eb="28">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ブショ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワードに、何も入れずにエンターキーを押す</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニュー</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1046,12 +651,290 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本日の日付とグラフが</t>
+    <t>ログイン後　トップページは正しく表示される</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本日の日付が表示される。
+ログインユーザーの名前が表示される。
+グラフが表示される</t>
     <rPh sb="0" eb="2">
       <t>ホンジツ</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>健康チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン後、「健康チェック」ページは正しく表示される</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県境チェックの「スタート」ボタンが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ケンキョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン後、「健康チェック」ページの設問は正しく遷移する</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セツモン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県境チェックの設問に答えてエラーは表示されない</t>
+    <rPh sb="0" eb="2">
+      <t>ケンキョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セツモン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン後、「健康チェック」ページは「結果のページ」ボタンが表示される</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県境チェックに「結果のページ」ボタンが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ケンキョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「健康チェック結果」に正しく結果が表示される</t>
+    <rPh sb="11" eb="12">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「今日のポイント」と「消費したカロリー」が計算される</t>
+    <rPh sb="1" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「健康チェック」後、今日のポイントがグラフに表示される</t>
+    <rPh sb="1" eb="3">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフに今日のポイントがプロットされる</t>
+    <rPh sb="4" eb="6">
+      <t>キョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBテーブル「user」に新規登録される</t>
+    <rPh sb="13" eb="17">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した値がテーブル「user」に追加される</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「健康チェック結果」がDBテーブル「point」に登録される</t>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル「point」に今日の日付とともに登録される</t>
+    <rPh sb="12" eb="14">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン後、目標体重の設定がない状態で「レシピ」ページは正しく表示される</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>モクヒョウタイジュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「簡単レシピ」が表示される</t>
+    <rPh sb="1" eb="3">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン後、目標体重の設定されている状態で「レシピ」ページは正しく表示される</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>モクヒョウタイジュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ヘルシーレシピ」が表示される</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1254,7 +1137,41 @@
     <cellStyle name="見出し 1" xfId="1" builtinId="16"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="29">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1307,76 +1224,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1408,22 +1258,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1455,12 +1292,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1863,7 +1748,7 @@
     </row>
     <row r="6" spans="2:4" ht="35.25">
       <c r="B6" s="9" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="35.25">
@@ -1873,7 +1758,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="16" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -1883,22 +1768,22 @@
         <v>44342</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="15" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="18" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -1920,10 +1805,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:I53"/>
+  <dimension ref="B2:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="16.5"/>
@@ -1941,7 +1826,7 @@
   <sheetData>
     <row r="2" spans="2:9" s="1" customFormat="1" ht="20.25" thickBot="1">
       <c r="B2" s="12" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1959,46 +1844,46 @@
         <v>6</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="49.5">
       <c r="B5" s="6">
-        <f t="shared" ref="B5:B22" si="0">ROW() -4</f>
+        <f t="shared" ref="B5:B23" si="0">ROW() -4</f>
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="H5" s="14">
         <v>44342.5</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="49.5">
@@ -2008,20 +1893,20 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="5" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="14">
         <v>44342.5</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="49.5">
@@ -2031,20 +1916,20 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="5" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="14">
         <v>44342.5</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="49.5">
@@ -2054,20 +1939,20 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="14">
         <v>44342.5</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -2077,20 +1962,20 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="5" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="14">
         <v>44342.5</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -2100,20 +1985,20 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="5" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="14">
         <v>44342.541666666664</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -2123,20 +2008,20 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="5" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="14">
         <v>44342.541666666664</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -2146,20 +2031,20 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="5" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="14">
         <v>44342.541666666664</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -2168,23 +2053,23 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="14">
         <v>44342.548611111109</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -2194,20 +2079,20 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="5" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="14">
         <v>44342.548611111109</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="33">
@@ -2217,20 +2102,20 @@
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="5" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="14">
         <v>44342.548611111109</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -2240,20 +2125,20 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="5" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="14">
         <v>44342.618055555555</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="33">
@@ -2263,20 +2148,20 @@
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="5" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="14">
         <v>44342.618055555555</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="33">
@@ -2286,22 +2171,22 @@
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="5" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="H18" s="14">
         <v>44342.618055555555</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="33">
@@ -2311,20 +2196,20 @@
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="5" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="14">
         <v>44342.618055555555</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -2334,20 +2219,20 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="5" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="14">
         <v>44342.631944444445</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -2355,26 +2240,22 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="C21" s="6"/>
       <c r="D21" s="5" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>93</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G21" s="6"/>
       <c r="H21" s="14">
         <v>44342.631944444445</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -2382,68 +2263,72 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="D22" s="5" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="H22" s="14">
         <v>44342.631944444445</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="6">
-        <f t="shared" ref="B23:B53" si="1">ROW() -4</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="14">
         <v>44342.631944444445</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B24:B34" si="1">ROW() -4</f>
         <v>20</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="5" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="14">
         <v>44342.631944444445</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:9">
@@ -2451,71 +2336,96 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="C25" s="6"/>
       <c r="D25" s="5" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="14">
         <v>44342.631944444445</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="49.5">
+      <c r="B26" s="6">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="H26" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="6">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="5" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="H27" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="D28" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="H28" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="6">
@@ -2524,34 +2434,44 @@
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="5" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="2:9">
+      <c r="H29" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="33">
       <c r="B30" s="6">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="C30" s="6"/>
       <c r="D30" s="5" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="E30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="5"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="H30" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="6">
@@ -2560,265 +2480,203 @@
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="5" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="H31" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="6">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="C32" s="6"/>
       <c r="D32" s="5" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="2:9">
+      <c r="H32" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="33">
       <c r="B33" s="6">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="D33" s="5" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="E33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="5"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="2:9">
+      <c r="H33" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="33">
       <c r="B34" s="6">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="5" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="2:9" ht="33">
-      <c r="B35" s="6">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
+      <c r="H34" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="6">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
+      <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:9" ht="33">
-      <c r="B37" s="6">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>26</v>
-      </c>
+    <row r="37" spans="2:9">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="2:9" ht="33">
-      <c r="B38" s="6">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
+    <row r="38" spans="2:9">
+      <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:9" ht="33">
-      <c r="B39" s="6">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
+    <row r="39" spans="2:9">
+      <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="2:9" ht="33">
-      <c r="B40" s="6">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
+    <row r="40" spans="2:9">
+      <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="6">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="2:9" ht="33">
-      <c r="B42" s="6">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
+    <row r="42" spans="2:9">
+      <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="2:9" ht="33">
-      <c r="B43" s="6">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
+    <row r="43" spans="2:9">
+      <c r="B43" s="6"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="6">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
+      <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="6">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
+      <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="6">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
+      <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -2828,10 +2686,7 @@
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="6">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
+      <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -2841,10 +2696,7 @@
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="6">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
+      <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -2854,10 +2706,7 @@
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="6">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
+      <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -2867,10 +2716,7 @@
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="6">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
+      <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -2880,10 +2726,7 @@
       <c r="I50" s="6"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="6">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
+      <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -2893,10 +2736,7 @@
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="6">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
+      <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2906,10 +2746,7 @@
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="6">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
+      <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -2918,45 +2755,205 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F1:F18 F22:F24 F26:F1048576">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+  <conditionalFormatting sqref="F1:F18 F23:F25 F35:F1048576">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G24 G26:G53">
-    <cfRule type="containsBlanks" dxfId="4" priority="4">
+  <conditionalFormatting sqref="G5:G20 G35:G60 G22:G25">
+    <cfRule type="containsBlanks" dxfId="24" priority="22">
       <formula>LEN(TRIM(G5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="F26">
+    <cfRule type="cellIs" dxfId="23" priority="20" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="containsBlanks" dxfId="22" priority="19">
+      <formula>LEN(TRIM(G26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="containsBlanks" dxfId="20" priority="17">
+      <formula>LEN(TRIM(G28))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsBlanks" dxfId="18" priority="15">
+      <formula>LEN(TRIM(G29))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="containsBlanks" dxfId="16" priority="13">
+      <formula>LEN(TRIM(G30))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="containsBlanks" dxfId="14" priority="11">
+      <formula>LEN(TRIM(G31))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsBlanks" dxfId="12" priority="9">
+      <formula>LEN(TRIM(G27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="containsBlanks" dxfId="10" priority="7">
+      <formula>LEN(TRIM(G21))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="containsBlanks" dxfId="8" priority="5">
+      <formula>LEN(TRIM(G32))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="containsBlanks" dxfId="5" priority="3">
+      <formula>LEN(TRIM(G33))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="G34">
     <cfRule type="containsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(G25))=0</formula>
+      <formula>LEN(TRIM(G34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F60">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2989,7 +2986,7 @@
   <sheetData>
     <row r="2" spans="2:9" s="1" customFormat="1" ht="20.25" thickBot="1">
       <c r="B2" s="12" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3007,19 +3004,19 @@
         <v>6</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:9">

--- a/テスト工程/チーム開発演習_テスト仕様書（チーム乙女）.xlsx
+++ b/テスト工程/チーム開発演習_テスト仕様書（チーム乙女）.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\OTOME\テスト工程\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6F1CD5-468E-43E6-A7E3-D94E4985707A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="0" windowWidth="19440" windowHeight="12240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="660" yWindow="0" windowWidth="19440" windowHeight="12240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
     <sheet name="テスト仕様_正常" sheetId="1" r:id="rId2"/>
     <sheet name="テスト仕様_異常" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="112">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -409,16 +410,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「新規登録」に遷移する。</t>
-    <rPh sb="1" eb="5">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新規登録</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
@@ -938,11 +929,458 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>「健康チェック」終了後、TOPページに戻る</t>
+    <rPh sb="1" eb="3">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「健康チェック結果」に合わせてコメントが表示される</t>
+    <rPh sb="1" eb="3">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ユーザー登録情報」にアクセスする</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ユーザー登録情報変更」にアクセスする</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ログアウト」にアクセスする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイントップに遷移する</t>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ユーザー登録情報」で「変更ページへ」ボタンを押す</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録情報」に遷移する</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録情報変更」に遷移する</t>
+    <rPh sb="1" eb="5">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録情報変更」に遷移する</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録情報変更」で「名前」を空にして「変更する」ボタンを押す</t>
+    <rPh sb="1" eb="7">
+      <t>トウロクジョウホウヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録情報変更」で「メールアドレス」を空にして「変更する」ボタンを押す</t>
+    <rPh sb="1" eb="7">
+      <t>トウロクジョウホウヘンコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録情報変更」で「メールアドレス」をメール以外の文字を入力して「登録」ボタンを押す。</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録情報変更」で「パスワード」を空にして「登録」ボタンを押す。</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録情報変更」で「パスワード」を7文字以下にして「登録」ボタンを押す。</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>モジイカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録情報変更」で「パスワード」を17文字以上にして「登録」ボタンを押す。</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録情報変更」で「パスワード」を英数字以外にして「登録」ボタンを押す。</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録情報変更」で「生年月日」を空にして「登録」ボタンを押す。</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「パスワードを入力してください」とアラート。</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録情報変更」で「身長」を空にして「登録」ボタンを押す。</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンチョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「0を入力してください」とアラート</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録情報変更」で「体重」を空にして「登録」ボタンを押す。</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイジュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録情報変更」で「目標体重」を空にして「登録」ボタンを押す。</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>モクヒョウタイジュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「パスワードが間違っています」とアラート。</t>
+    <rPh sb="7" eb="9">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「プライバシーポリシー」のダイアログを表示する。</t>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「プライバシーポリシー」の「同意」ボタンを押す</t>
+    <rPh sb="14" eb="16">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「利用規約」のダイアログを表示する</t>
+    <rPh sb="1" eb="5">
+      <t>リヨウキヤク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「運営会社」の「同意」</t>
+    <rPh sb="1" eb="5">
+      <t>ウンエイガイシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11">
     <font>
       <sz val="12"/>
@@ -1094,7 +1532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
@@ -1132,19 +1570,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="見出し 1" xfId="1" builtinId="16"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -1163,36 +1597,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1723,7 +2130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1733,12 +2140,12 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.5" style="10" customWidth="1"/>
-    <col min="2" max="3" width="23.875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="50.625" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="12.875" style="10"/>
+    <col min="2" max="3" width="23.83203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="50.58203125" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="12.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -1746,12 +2153,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="35.25">
+    <row r="6" spans="2:4" ht="35">
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="35.25">
+    <row r="7" spans="2:4" ht="35">
       <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
@@ -1801,30 +2208,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:I60"/>
+  <dimension ref="B2:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="4.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="15" style="3" customWidth="1"/>
-    <col min="4" max="5" width="53.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="53.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.58203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="37.75" style="3" customWidth="1"/>
     <col min="8" max="8" width="19" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="43.625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="12.875" style="3"/>
+    <col min="9" max="9" width="24.08203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="43.58203125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="12.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" s="1" customFormat="1" ht="20.25" thickBot="1">
+    <row r="2" spans="2:9" s="1" customFormat="1" ht="19.5" thickBot="1">
       <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
@@ -1832,7 +2239,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:9" ht="17.25" thickTop="1"/>
+    <row r="3" spans="2:9" ht="16.5" thickTop="1"/>
     <row r="4" spans="2:9">
       <c r="B4" s="7" t="s">
         <v>2</v>
@@ -1859,7 +2266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="49.5">
+    <row r="5" spans="2:9" ht="48">
       <c r="B5" s="6">
         <f t="shared" ref="B5:B23" si="0">ROW() -4</f>
         <v>1</v>
@@ -1886,7 +2293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="49.5">
+    <row r="6" spans="2:9" ht="48">
       <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1909,7 +2316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="49.5">
+    <row r="7" spans="2:9" ht="48">
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1932,7 +2339,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="49.5">
+    <row r="8" spans="2:9" ht="48">
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2034,7 +2441,7 @@
         <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>24</v>
@@ -2052,25 +2459,17 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="C13" s="6"/>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F13" s="5"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="14">
-        <v>44342.548611111109</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="6">
@@ -2079,127 +2478,109 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="14">
-        <v>44342.548611111109</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="33">
+      <c r="H14" s="14"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="14">
-        <v>44342.548611111109</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="D16" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="14">
-        <v>44342.618055555555</v>
+        <v>44342.548611111109</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="32">
       <c r="B17" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="14">
-        <v>44342.618055555555</v>
+        <v>44342.548611111109</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="32">
       <c r="B18" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G18" s="6"/>
       <c r="H18" s="14">
-        <v>44342.618055555555</v>
+        <v>44342.548611111109</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>24</v>
@@ -2212,74 +2593,72 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" ht="32">
       <c r="B20" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="14">
-        <v>44342.631944444445</v>
+        <v>44342.618055555555</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" ht="32">
       <c r="B21" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="5" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="H21" s="14">
-        <v>44342.631944444445</v>
+        <v>44342.618055555555</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" ht="32">
       <c r="B22" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="C22" s="6"/>
       <c r="D22" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>58</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G22" s="6"/>
       <c r="H22" s="14">
-        <v>44342.631944444445</v>
+        <v>44342.618055555555</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>21</v>
@@ -2292,10 +2671,10 @@
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="5" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>24</v>
@@ -2310,15 +2689,15 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="6">
-        <f t="shared" ref="B24:B34" si="1">ROW() -4</f>
+        <f t="shared" ref="B24:B36" si="1">ROW() -4</f>
         <v>20</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="5" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>24</v>
@@ -2336,142 +2715,77 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="14">
-        <v>44342.631944444445</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="49.5">
+      <c r="H25" s="14"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="2:9">
       <c r="B26" s="6">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="14">
-        <v>44342.631944444445</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="6">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="14">
-        <v>44342.631944444445</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="14">
-        <v>44342.631944444445</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="6">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="14">
-        <v>44342.631944444445</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="33">
+      <c r="H29" s="14"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="6">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="14">
-        <v>44342.631944444445</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="H30" s="14"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="6">
@@ -2479,22 +2793,12 @@
         <v>27</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="14">
-        <v>44342.631944444445</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="H31" s="14"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="6">
@@ -2502,41 +2806,33 @@
         <v>28</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="14">
-        <v>44342.631944444445</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="33">
+      <c r="H32" s="14"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" s="6">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="H33" s="14">
         <v>44342.631944444445</v>
       </c>
@@ -2544,19 +2840,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="33">
+    <row r="34" spans="2:9">
       <c r="B34" s="6">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="5" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G34" s="6"/>
       <c r="H34" s="14">
         <v>44342.631944444445</v>
@@ -2566,131 +2864,263 @@
       </c>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="6"/>
+      <c r="B35" s="6">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="H35" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="6"/>
+      <c r="B36" s="6">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="2:9">
+      <c r="H36" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="48">
       <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="C37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="H37" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="H38" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="C39" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="H39" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="D40" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="2:9">
+      <c r="H40" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="32">
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="D41" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+      <c r="H41" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+      <c r="H42" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="D43" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+      <c r="H43" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="D44" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F44" s="5"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="H44" s="14"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:9" ht="32">
       <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="C45" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="2:9">
+      <c r="H45" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="32">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="D46" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="F46" s="5"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+      <c r="H46" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
+      <c r="C47" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -2698,9 +3128,15 @@
     <row r="48" spans="2:9">
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="D48" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
@@ -2708,9 +3144,15 @@
     <row r="49" spans="2:9">
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+      <c r="D49" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -2718,79 +3160,117 @@
     <row r="50" spans="2:9">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="D50" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="F50" s="5"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" ht="32">
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="D51" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" ht="32">
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="D52" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" ht="32">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="D53" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" ht="32">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="D54" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" ht="32">
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
+      <c r="D55" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" ht="32">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
+      <c r="D56" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" ht="32">
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+      <c r="D57" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -2798,9 +3278,15 @@
     <row r="58" spans="2:9">
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
+      <c r="D58" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
@@ -2808,9 +3294,15 @@
     <row r="59" spans="2:9">
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+      <c r="D59" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
@@ -2818,142 +3310,401 @@
     <row r="60" spans="2:9">
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+      <c r="D60" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
     </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="C75" s="6"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="C76" s="6"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="C77" s="6"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="C78" s="6"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="C79" s="6"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="C80" s="6"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="3:9">
+      <c r="C81" s="6"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="3:9">
+      <c r="C82" s="6"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="3:9">
+      <c r="C83" s="6"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="3:9">
+      <c r="C84" s="6"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="3:9">
+      <c r="C85" s="6"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F1:F18 F23:F25 F35:F1048576">
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
+  <conditionalFormatting sqref="F34:F36 F44 F25:F32 F1:F21 F47:F1048576">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G20 G35:G60 G22:G25">
-    <cfRule type="containsBlanks" dxfId="24" priority="22">
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44 G47:G85 G25:G36 G5:G23">
+    <cfRule type="containsBlanks" dxfId="20" priority="22">
       <formula>LEN(TRIM(G5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="23" priority="20" operator="equal">
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="containsBlanks" dxfId="22" priority="19">
-      <formula>LEN(TRIM(G26))=0</formula>
+  <conditionalFormatting sqref="G37">
+    <cfRule type="containsBlanks" dxfId="18" priority="19">
+      <formula>LEN(TRIM(G37))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="containsBlanks" dxfId="20" priority="17">
-      <formula>LEN(TRIM(G28))=0</formula>
+  <conditionalFormatting sqref="G39">
+    <cfRule type="containsBlanks" dxfId="16" priority="17">
+      <formula>LEN(TRIM(G39))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+  <conditionalFormatting sqref="F40">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="containsBlanks" dxfId="18" priority="15">
-      <formula>LEN(TRIM(G29))=0</formula>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="containsBlanks" dxfId="14" priority="15">
+      <formula>LEN(TRIM(G40))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="containsBlanks" dxfId="16" priority="13">
-      <formula>LEN(TRIM(G30))=0</formula>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="containsBlanks" dxfId="12" priority="13">
+      <formula>LEN(TRIM(G41))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="containsBlanks" dxfId="14" priority="11">
-      <formula>LEN(TRIM(G31))=0</formula>
+  <conditionalFormatting sqref="G42">
+    <cfRule type="containsBlanks" dxfId="10" priority="11">
+      <formula>LEN(TRIM(G42))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="containsBlanks" dxfId="12" priority="9">
-      <formula>LEN(TRIM(G27))=0</formula>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="containsBlanks" dxfId="8" priority="9">
+      <formula>LEN(TRIM(G38))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="containsBlanks" dxfId="10" priority="7">
-      <formula>LEN(TRIM(G21))=0</formula>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="containsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(G24))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="containsBlanks" dxfId="8" priority="5">
-      <formula>LEN(TRIM(G32))=0</formula>
+  <conditionalFormatting sqref="G43">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(G43))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+  <conditionalFormatting sqref="F45">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="containsBlanks" dxfId="5" priority="3">
-      <formula>LEN(TRIM(G33))=0</formula>
+  <conditionalFormatting sqref="G45">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(G45))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(G34))=0</formula>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(G46))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F85" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2963,7 +3714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2971,20 +3722,20 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="4.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="15" style="3" customWidth="1"/>
-    <col min="4" max="5" width="53.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="53.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.58203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="37.75" style="3" customWidth="1"/>
     <col min="8" max="8" width="19" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="43.625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="12.875" style="3"/>
+    <col min="9" max="9" width="24.08203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="43.58203125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="12.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" s="1" customFormat="1" ht="20.25" thickBot="1">
+    <row r="2" spans="2:9" s="1" customFormat="1" ht="19.5" thickBot="1">
       <c r="B2" s="12" t="s">
         <v>15</v>
       </c>
@@ -2992,7 +3743,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:9" ht="17.25" thickTop="1"/>
+    <row r="3" spans="2:9" ht="16.5" thickTop="1"/>
     <row r="4" spans="2:9">
       <c r="B4" s="7" t="s">
         <v>2</v>
@@ -3425,7 +4176,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F35" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>

--- a/テスト工程/チーム開発演習_テスト仕様書（チーム乙女）.xlsx
+++ b/テスト工程/チーム開発演習_テスト仕様書（チーム乙女）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\OTOME\テスト工程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6F1CD5-468E-43E6-A7E3-D94E4985707A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F600A0-C6B8-442E-A291-2C403526D2A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="0" windowWidth="19440" windowHeight="12240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="128">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -246,130 +246,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログインしない状態で「トップ」にアクセスする。</t>
-    <rPh sb="7" eb="9">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインしない状態で「健康チェック」にアクセスする。</t>
-    <rPh sb="7" eb="9">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインしない状態で「レシピ」にアクセスする。</t>
-    <rPh sb="7" eb="9">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインしない状態で「マイページ」にアクセスする。</t>
-    <rPh sb="7" eb="9">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインしない状態で「トップ」にアクセスすると
-アラート「ログインしてください」を表示
-「OK」を押すと　ログイントップに遷移する。</t>
-    <rPh sb="7" eb="9">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインしない状態で「健康チェック」にアクセスすると
-アラート「ログインしてください」を表示
-「OK」を押すと　ログイントップに遷移する。</t>
-    <rPh sb="7" eb="9">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインしない状態で「レシピ」にアクセスすると
-アラート「ログインしてください」を表示
-「OK」を押すと　ログイントップに遷移する。</t>
-    <rPh sb="7" eb="9">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインしない状態で「マイページ」にアクセスすると
-アラート「ログインしてください」を表示
-「OK」を押すと　ログイントップに遷移する。</t>
-    <rPh sb="7" eb="9">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインしない状態で「プライバシーポリシー」にアクセスする。</t>
-    <rPh sb="7" eb="9">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「プライバシーポリシー」に遷移する。</t>
-    <rPh sb="13" eb="15">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインしない状態で「利用規約」にアクセスする。</t>
-    <rPh sb="7" eb="9">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>リヨウキヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「利用規約」に遷移する。</t>
     <rPh sb="7" eb="9">
       <t>センイ</t>
@@ -377,16 +253,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログインしない状態で「運営会社」にアクセスする。</t>
-    <rPh sb="7" eb="9">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>ウンエイガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「運営会社」に遷移する。</t>
     <rPh sb="7" eb="9">
       <t>センイ</t>
@@ -394,22 +260,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログインしない状態で「新規登録」ボタンを押す。</t>
-    <rPh sb="7" eb="9">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新規登録</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
@@ -420,141 +270,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「新規登録」で「名前」を空にして「登録」ボタンを押す。</t>
-    <rPh sb="1" eb="5">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「このフィールドを入力してください」とアラート。</t>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「新規登録」で「メールアドレス」を空にして「登録」ボタンを押す。</t>
-    <rPh sb="1" eb="5">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「新規登録」で「メールアドレス」をメール以外の文字を入力して「登録」ボタンを押す。</t>
-    <rPh sb="1" eb="5">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「メールアドレスに「＠」を挿入してください。」とアラート。</t>
-    <rPh sb="13" eb="15">
-      <t>ソウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「新規登録」で「パスワード」を空にして「登録」ボタンを押す。</t>
-    <rPh sb="1" eb="5">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「新規登録」で「パスワード」を7文字以下にして「登録」ボタンを押す。</t>
-    <rPh sb="1" eb="5">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>モジイカ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「指定している形式で入力してください」とアラート。</t>
-    <rPh sb="1" eb="3">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「新規登録」で「パスワード」を17文字以上にして「登録」ボタンを押す。</t>
-    <rPh sb="1" eb="5">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>20文字入れても16文字で</t>
     <rPh sb="2" eb="4">
       <t>モジ</t>
@@ -568,59 +283,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「新規登録」で「パスワード」を英数字以外にして「登録」ボタンを押す。</t>
-    <rPh sb="1" eb="5">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「新規登録」で「生年月日」を空にして「登録」ボタンを押す。</t>
-    <rPh sb="1" eb="5">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未登録の「メールアドレス」でログインする。</t>
-    <rPh sb="0" eb="3">
-      <t>ミトウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「パスワードが間違っています」と表示されてログインしない。</t>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -655,30 +318,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本日の日付が表示される。
-ログインユーザーの名前が表示される。
-グラフが表示される</t>
-    <rPh sb="0" eb="2">
-      <t>ホンジツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>健康チェック</t>
     <rPh sb="0" eb="2">
       <t>ケンコウ</t>
@@ -891,16 +530,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「簡単レシピ」が表示される</t>
-    <rPh sb="1" eb="3">
-      <t>カンタン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン後、目標体重の設定されている状態で「レシピ」ページは正しく表示される</t>
     <rPh sb="4" eb="5">
       <t>ゴ</t>
@@ -923,45 +552,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「ヘルシーレシピ」が表示される</t>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「健康チェック」終了後、TOPページに戻る</t>
-    <rPh sb="1" eb="3">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「健康チェック結果」に合わせてコメントが表示される</t>
-    <rPh sb="1" eb="3">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マイページ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1093,257 +683,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「登録情報変更」で「メールアドレス」をメール以外の文字を入力して「登録」ボタンを押す。</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「登録情報変更」で「パスワード」を空にして「登録」ボタンを押す。</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「登録情報変更」で「パスワード」を7文字以下にして「登録」ボタンを押す。</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="18" eb="22">
-      <t>モジイカ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「登録情報変更」で「パスワード」を17文字以上にして「登録」ボタンを押す。</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「登録情報変更」で「パスワード」を英数字以外にして「登録」ボタンを押す。</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「登録情報変更」で「生年月日」を空にして「登録」ボタンを押す。</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「パスワードを入力してください」とアラート。</t>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログアウト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「登録情報変更」で「身長」を空にして「登録」ボタンを押す。</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シンチョウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「0を入力してください」とアラート</t>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「登録情報変更」で「体重」を空にして「登録」ボタンを押す。</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タイジュウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「登録情報変更」で「目標体重」を空にして「登録」ボタンを押す。</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>モクヒョウタイジュウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「パスワードが間違っています」とアラート。</t>
-    <rPh sb="7" eb="9">
-      <t>マチガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「プライバシーポリシー」のダイアログを表示する。</t>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1367,12 +707,856 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「運営会社」の「同意」</t>
+    <t>「正しく入力してください」とアラート</t>
+    <rPh sb="1" eb="2">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「利用規約」の「同意」ボタンを押す</t>
+    <rPh sb="1" eb="5">
+      <t>リヨウキヤク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「運営会社」のダイアログを表示する</t>
     <rPh sb="1" eb="5">
       <t>ウンエイガイシャ</t>
     </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「運営会社」の「同意」ボタンを押す</t>
+    <rPh sb="1" eb="5">
+      <t>ウンエイガイシャ</t>
+    </rPh>
     <rPh sb="8" eb="10">
       <t>ドウイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「新規登録」に遷移する</t>
+    <rPh sb="1" eb="5">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ログインしない状態で「トップ」にアクセスすると
+アラート「ログインしてください」を表示
+・「OK」を押すと　ログイントップに遷移する</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ログインしない状態で「健康チェック」にアクセスすると
+アラート「ログインしてください」を表示
+・「OK」を押すと　ログイントップに遷移する</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ログインしない状態で「レシピ」にアクセスすると
+アラート「ログインしてください」を表示
+・「OK」を押すと　ログイントップに遷移する</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ログインしない状態で「マイページ」にアクセスすると
+アラート「ログインしてください」を表示
+・「OK」を押すと　ログイントップに遷移する</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしない状態で「プライバシーポリシー」にアクセスする</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしない状態で「利用規約」にアクセスする</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>リヨウキヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしない状態で「運営会社」にアクセスする</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ウンエイガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしない状態で「新規登録」ボタンを押す</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「新規登録」で「名前」を空にして「登録」ボタンを押す</t>
+    <rPh sb="1" eb="5">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「新規登録」で「メールアドレス」を空にして「登録」ボタンを押す</t>
+    <rPh sb="1" eb="5">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「新規登録」で「メールアドレス」をメール以外の文字を入力して「登録」ボタンを押す</t>
+    <rPh sb="1" eb="5">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「新規登録」で「パスワード」を空にして「登録」ボタンを押す</t>
+    <rPh sb="1" eb="5">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「新規登録」で「パスワード」を7文字以下にして「登録」ボタンを押す</t>
+    <rPh sb="1" eb="5">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>モジイカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「新規登録」で「パスワード」を17文字以上にして「登録」ボタンを押す</t>
+    <rPh sb="1" eb="5">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「新規登録」で「パスワード」を英数字以外にして「登録」ボタンを押す</t>
+    <rPh sb="1" eb="5">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未登録の「メールアドレス」でログインする</t>
+    <rPh sb="0" eb="3">
+      <t>ミトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「このフィールドを入力してください」とアラート</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「メールアドレスに「＠」を挿入してください。」とアラート</t>
+    <rPh sb="13" eb="15">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「指定している形式で入力してください」とアラート</t>
+    <rPh sb="1" eb="3">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「パスワードが間違っています」と表示されてログインしない</t>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「プライバシーポリシー」のダイアログを表示する</t>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「プライバシーポリシー」に遷移する</t>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・本日の日付が表示される
+・ログインユーザーの名前が表示される
+・グラフが表示される</t>
+    <rPh sb="1" eb="3">
+      <t>ホンジツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「指定している形式で入力してください」とアラート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「パスワードが間違っています」とアラート</t>
+    <rPh sb="7" eb="9">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしない状態で「トップ」にアクセスする</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしない状態で「健康チェック」にアクセスする</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしない状態で「レシピ」にアクセスする</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしない状態で「マイページ」にアクセスする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「新規登録」の「確認パスワード」を「パスワード」と違うパスワードにして「登録」ボタンを押す</t>
+    <rPh sb="1" eb="5">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「新規登録」で「身長」を空にして「登録」ボタンを押す</t>
+    <rPh sb="1" eb="5">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンチョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「新規登録」で「体重」を空にして「登録」ボタンを押す</t>
+    <rPh sb="1" eb="5">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイジュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「新規登録」で「目標体重」を空にして「登録」ボタンを押す</t>
+    <rPh sb="1" eb="5">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>モクヒョウタイジュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>畑本</t>
+    <rPh sb="0" eb="2">
+      <t>ハタモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOPページに「お疲れではありませんか？ゆっくりお休みください」というコメントが表示される</t>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOPページに「少しお疲れですか？生活リズムを見直しましょう」というコメントが表示される</t>
+    <rPh sb="8" eb="9">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイカツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「point」が0点以下になるように健康チェックを行い、TOPページに戻る</t>
+    <rPh sb="9" eb="12">
+      <t>テンイカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「point」が5点以下になるように健康チェックを行い、TOPページに戻る</t>
+    <rPh sb="9" eb="12">
+      <t>テンイカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「point」が11点以下になるように健康チェックを行い、TOPページに戻る</t>
+    <rPh sb="10" eb="13">
+      <t>テンイカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「point」が12点以上になるように健康チェックを行い、TOPページに戻る</t>
+    <rPh sb="10" eb="11">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOPページに「順調ですね！この調子でポイントアップを目指しましょう」というコメントが表示される</t>
+    <rPh sb="8" eb="10">
+      <t>ジュンチョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チョウシ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>メザ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「簡単レシピ」がランダムで表示される</t>
+    <rPh sb="1" eb="3">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ヘルシーレシピ」がランダムで表示される</t>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOPページに「絶好調ですね！このままキープしましょう」というコメントが表示される</t>
+    <rPh sb="8" eb="11">
+      <t>ゼッコウチョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシポンシブデザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマホサイズで表示する</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボトムナビゲーションが表示される</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録情報変更」で「生年月日」を空にして「登録」ボタンを押す</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録情報変更」で「身長」を空にして「登録」ボタンを押す</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンチョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録情報変更」で「体重」を空にして「登録」ボタンを押す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録情報変更」で「目標体重」を空にして「登録」ボタンを押す</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>モクヒョウタイジュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録情報変更」で「メールアドレス」をメール以外の文字を入力して「登録」ボタンを押す</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録情報変更」で「パスワード」を空にして「登録」ボタンを押す</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録情報変更」で「パスワード」を7文字以下にして「登録」ボタンを押す</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>モジイカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録情報変更」で「パスワード」を17文字以上にして「登録」ボタンを押す</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録情報変更」で「パスワード」を英数字以外にして「登録」ボタンを押す</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1486,7 +1670,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1527,12 +1711,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
@@ -1570,19 +1791,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="見出し 1" xfId="1" builtinId="16"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="27">
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1593,6 +1826,23 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2212,16 +2462,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:I85"/>
+  <dimension ref="B2:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="4.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="3" customWidth="1"/>
     <col min="4" max="5" width="53.33203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="8.58203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="37.75" style="3" customWidth="1"/>
@@ -2268,17 +2518,17 @@
     </row>
     <row r="5" spans="2:9" ht="48">
       <c r="B5" s="6">
-        <f t="shared" ref="B5:B23" si="0">ROW() -4</f>
+        <f t="shared" ref="B5:B27" si="0">ROW() -4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>22</v>
@@ -2298,12 +2548,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -2321,12 +2571,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="5" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>24</v>
@@ -2344,12 +2594,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>24</v>
@@ -2367,12 +2617,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="5" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>24</v>
@@ -2390,12 +2640,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="5" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>24</v>
@@ -2413,12 +2663,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="5" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>24</v>
@@ -2436,12 +2686,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="5" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>24</v>
@@ -2459,59 +2709,83 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="5" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="6"/>
+      <c r="H13" s="14">
+        <v>44343.416666666664</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="6"/>
+      <c r="H14" s="14">
+        <v>44344.416666608799</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="6"/>
+      <c r="H15" s="14">
+        <v>44345.416666608799</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>41</v>
+      <c r="C16" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>24</v>
@@ -2524,17 +2798,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32">
+    <row r="17" spans="2:9">
       <c r="B17" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="5" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>24</v>
@@ -2552,12 +2826,12 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="5" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>24</v>
@@ -2575,12 +2849,12 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="5" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>24</v>
@@ -2598,12 +2872,12 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="5" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>24</v>
@@ -2621,18 +2895,18 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="5" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H21" s="14">
         <v>44342.618055555555</v>
@@ -2646,12 +2920,12 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="5" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>24</v>
@@ -2664,175 +2938,258 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" ht="32">
       <c r="B23" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="5" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="14">
-        <v>44342.631944444445</v>
+        <v>44343.479166666664</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="6">
-        <f t="shared" ref="B24:B36" si="1">ROW() -4</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="14">
-        <v>44342.631944444445</v>
+        <v>44344.479166608799</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="6"/>
+      <c r="H25" s="14">
+        <v>44345.479166608799</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="6"/>
+      <c r="H26" s="14">
+        <v>44346.479166608799</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G27" s="6"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="6"/>
+      <c r="H27" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="6">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="6"/>
+        <f t="shared" ref="B28:B60" si="1">ROW() -4</f>
+        <v>24</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="6">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G29" s="6"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="6"/>
+      <c r="H29" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="6">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G30" s="6"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="6"/>
+      <c r="H30" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="6">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G31" s="6"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="2:9">
+      <c r="H31" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="48">
       <c r="B32" s="6">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="C32" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G32" s="6"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="6"/>
+      <c r="H32" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="6">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="C33" s="22"/>
       <c r="D33" s="5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G33" s="6"/>
       <c r="H33" s="14">
         <v>44342.631944444445</v>
       </c>
@@ -2845,12 +3202,14 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="D34" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>24</v>
@@ -2868,12 +3227,12 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="5" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>24</v>
@@ -2886,17 +3245,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" ht="32">
       <c r="B36" s="6">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="C36" s="6"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="5" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>24</v>
@@ -2909,16 +3268,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="48">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6" t="s">
-        <v>59</v>
-      </c>
+    <row r="37" spans="2:9">
+      <c r="B37" s="6">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="C37" s="21"/>
       <c r="D37" s="5" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>24</v>
@@ -2932,13 +3292,16 @@
       </c>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="B38" s="6">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="C38" s="21"/>
       <c r="D38" s="5" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>24</v>
@@ -2951,96 +3314,111 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6" t="s">
-        <v>62</v>
-      </c>
+    <row r="39" spans="2:9" ht="32">
+      <c r="B39" s="6">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="C39" s="21"/>
       <c r="D39" s="5" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="14">
-        <v>44342.631944444445</v>
+        <v>44343.486111111109</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="32">
+      <c r="B40" s="6">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="C40" s="21"/>
       <c r="D40" s="5" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="14">
-        <v>44342.631944444445</v>
+        <v>44344.486111053244</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="32">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
+      <c r="B41" s="6">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="C41" s="21"/>
       <c r="D41" s="5" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="14">
-        <v>44342.631944444445</v>
+        <v>44345.486111053244</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="32">
+      <c r="B42" s="6">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="C42" s="22"/>
       <c r="D42" s="5" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="14">
-        <v>44342.631944444445</v>
+        <v>44346.486111053244</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="32">
+      <c r="B43" s="6">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D43" s="5" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>24</v>
@@ -3053,306 +3431,419 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
+    <row r="44" spans="2:9" ht="32">
+      <c r="B44" s="6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C44" s="22"/>
       <c r="D44" s="5" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F44" s="5"/>
+        <v>114</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G44" s="6"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="2:9" ht="32">
-      <c r="B45" s="6"/>
-      <c r="C45" s="6" t="s">
-        <v>77</v>
+      <c r="H44" s="14">
+        <v>44342.631944444445</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="6">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="14">
-        <v>44342.631944444445</v>
+        <v>44343.5</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" ht="32">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="6">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="C46" s="21"/>
       <c r="D46" s="5" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F46" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G46" s="6"/>
       <c r="H46" s="14">
-        <v>44342.631944444445</v>
+        <v>44344.5</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="6"/>
-      <c r="C47" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="B47" s="6">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="C47" s="21"/>
       <c r="D47" s="5" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="H47" s="14">
+        <v>44345.5</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
+      <c r="B48" s="6">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="C48" s="21"/>
       <c r="D48" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="14">
+        <v>44346.5</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="32">
+      <c r="B49" s="6">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="14">
+        <v>44347.5</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="32">
+      <c r="B50" s="6">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="2:9" ht="32">
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
+      <c r="H50" s="14">
+        <v>44348.5</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="6">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="C51" s="21"/>
       <c r="D51" s="5" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
+      <c r="H51" s="14">
+        <v>44349.5</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="52" spans="2:9" ht="32">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
+      <c r="B52" s="6">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C52" s="21"/>
       <c r="D52" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="14">
+        <v>44350.5</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="32">
+      <c r="B53" s="6">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="2:9" ht="32">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="5" t="s">
+      <c r="F53" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="14">
+        <v>44351.5</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="32">
+      <c r="B54" s="6">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="14">
+        <v>44352.5</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="32">
+      <c r="B55" s="6">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="2:9" ht="32">
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="2:9" ht="32">
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="F55" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="2:9" ht="32">
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
+      <c r="H55" s="14">
+        <v>44353.5</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="6">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="C56" s="21"/>
       <c r="D56" s="5" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="2:9" ht="32">
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
+      <c r="H56" s="14">
+        <v>44354.5</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="6">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="C57" s="21"/>
       <c r="D57" s="5" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
+      <c r="H57" s="14">
+        <v>44355.5</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="58" spans="2:9">
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
+      <c r="B58" s="6">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="C58" s="21"/>
       <c r="D58" s="5" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+      <c r="H58" s="14">
+        <v>44356.5</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
+      <c r="B59" s="6">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C59" s="22"/>
       <c r="D59" s="5" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
+      <c r="H59" s="14">
+        <v>44357.5</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="60" spans="2:9">
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
+      <c r="B60" s="6">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="D60" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="14">
+        <v>44358.5</v>
+      </c>
+      <c r="I60" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
+      <c r="C61" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="D61" s="5" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F61" s="5"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" s="6"/>
-      <c r="C62" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
@@ -3478,6 +3969,7 @@
       <c r="I74" s="6"/>
     </row>
     <row r="75" spans="2:9">
+      <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -3487,6 +3979,7 @@
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="2:9">
+      <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -3496,6 +3989,7 @@
       <c r="I76" s="6"/>
     </row>
     <row r="77" spans="2:9">
+      <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -3505,6 +3999,7 @@
       <c r="I77" s="6"/>
     </row>
     <row r="78" spans="2:9">
+      <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -3514,6 +4009,7 @@
       <c r="I78" s="6"/>
     </row>
     <row r="79" spans="2:9">
+      <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -3523,6 +4019,7 @@
       <c r="I79" s="6"/>
     </row>
     <row r="80" spans="2:9">
+      <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -3558,122 +4055,123 @@
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
     </row>
-    <row r="84" spans="3:9">
-      <c r="C84" s="6"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-    </row>
-    <row r="85" spans="3:9">
-      <c r="C85" s="6"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-    </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C59"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="C16:C27"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C42"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F34:F36 F44 F25:F32 F1:F21 F47:F1048576">
+  <conditionalFormatting sqref="F29:F31 F1:F21 F45:F1048576">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:F23">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
     <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
+  <conditionalFormatting sqref="F28">
     <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+  <conditionalFormatting sqref="G28:G31 G5:G26 G39:G42 G45:G83">
+    <cfRule type="containsBlanks" dxfId="22" priority="24">
+      <formula>LEN(TRIM(G5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
-      <formula>"NG"</formula>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="containsBlanks" dxfId="20" priority="21">
+      <formula>LEN(TRIM(G32))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44 G47:G85 G25:G36 G5:G23">
-    <cfRule type="containsBlanks" dxfId="20" priority="22">
-      <formula>LEN(TRIM(G5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
+  <conditionalFormatting sqref="F34">
     <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
+  <conditionalFormatting sqref="G34">
     <cfRule type="containsBlanks" dxfId="18" priority="19">
-      <formula>LEN(TRIM(G37))=0</formula>
+      <formula>LEN(TRIM(G34))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
+  <conditionalFormatting sqref="F35">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
+  <conditionalFormatting sqref="G35">
     <cfRule type="containsBlanks" dxfId="16" priority="17">
-      <formula>LEN(TRIM(G39))=0</formula>
+      <formula>LEN(TRIM(G35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
+  <conditionalFormatting sqref="F36">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
+  <conditionalFormatting sqref="G36">
     <cfRule type="containsBlanks" dxfId="14" priority="15">
-      <formula>LEN(TRIM(G40))=0</formula>
+      <formula>LEN(TRIM(G36))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+  <conditionalFormatting sqref="F37">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+  <conditionalFormatting sqref="G37">
     <cfRule type="containsBlanks" dxfId="12" priority="13">
-      <formula>LEN(TRIM(G41))=0</formula>
+      <formula>LEN(TRIM(G37))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
+  <conditionalFormatting sqref="F33">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
+  <conditionalFormatting sqref="G33">
     <cfRule type="containsBlanks" dxfId="10" priority="11">
-      <formula>LEN(TRIM(G42))=0</formula>
+      <formula>LEN(TRIM(G33))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
+  <conditionalFormatting sqref="F27">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
+  <conditionalFormatting sqref="G27">
     <cfRule type="containsBlanks" dxfId="8" priority="9">
-      <formula>LEN(TRIM(G38))=0</formula>
+      <formula>LEN(TRIM(G27))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="F38:F42">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="G38">
     <cfRule type="containsBlanks" dxfId="6" priority="7">
-      <formula>LEN(TRIM(G24))=0</formula>
+      <formula>LEN(TRIM(G38))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
+  <conditionalFormatting sqref="F43:F44">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
@@ -3683,28 +4181,23 @@
       <formula>LEN(TRIM(G43))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="G44">
+    <cfRule type="containsBlanks" dxfId="3" priority="3">
+      <formula>LEN(TRIM(G44))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(G45))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="F26">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(G46))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F85" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F83" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>

--- a/テスト工程/チーム開発演習_テスト仕様書（チーム乙女）.xlsx
+++ b/テスト工程/チーム開発演習_テスト仕様書（チーム乙女）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\OTOME\テスト工程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F600A0-C6B8-442E-A291-2C403526D2A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD041EC-6DD6-4409-B0BF-0F16F8B66CB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="0" windowWidth="19440" windowHeight="12240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="129">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -1557,6 +1557,16 @@
     </rPh>
     <rPh sb="33" eb="34">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移後、Fatal Errorが表示される</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセンイゴ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1650,7 +1660,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1666,6 +1676,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,7 +1769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
@@ -1783,6 +1799,9 @@
     <xf numFmtId="22" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1791,34 +1810,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="見出し 1" xfId="1" builtinId="16"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <font>
         <color theme="0"/>
@@ -2414,11 +2423,11 @@
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="13">
@@ -2432,18 +2441,18 @@
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2465,7 +2474,7 @@
   <dimension ref="B2:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="16"/>
@@ -2548,7 +2557,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="5" t="s">
         <v>98</v>
       </c>
@@ -2571,7 +2580,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="5" t="s">
         <v>99</v>
       </c>
@@ -2594,7 +2603,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="5" t="s">
         <v>100</v>
       </c>
@@ -2617,7 +2626,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="5" t="s">
         <v>76</v>
       </c>
@@ -2640,7 +2649,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="5" t="s">
         <v>77</v>
       </c>
@@ -2663,7 +2672,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="5" t="s">
         <v>78</v>
       </c>
@@ -2686,7 +2695,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="5" t="s">
         <v>79</v>
       </c>
@@ -2709,7 +2718,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="5" t="s">
         <v>65</v>
       </c>
@@ -2732,7 +2741,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="5" t="s">
         <v>68</v>
       </c>
@@ -2755,7 +2764,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="5" t="s">
         <v>70</v>
       </c>
@@ -2803,7 +2812,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="5" t="s">
         <v>81</v>
       </c>
@@ -2826,7 +2835,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="5" t="s">
         <v>82</v>
       </c>
@@ -2849,7 +2858,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="5" t="s">
         <v>83</v>
       </c>
@@ -2872,7 +2881,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="5" t="s">
         <v>84</v>
       </c>
@@ -2895,7 +2904,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="5" t="s">
         <v>85</v>
       </c>
@@ -2920,7 +2929,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="5" t="s">
         <v>86</v>
       </c>
@@ -2943,7 +2952,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="5" t="s">
         <v>101</v>
       </c>
@@ -2966,7 +2975,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="5" t="s">
         <v>102</v>
       </c>
@@ -2989,7 +2998,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="5" t="s">
         <v>103</v>
       </c>
@@ -3012,7 +3021,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="5" t="s">
         <v>104</v>
       </c>
@@ -3035,7 +3044,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C27" s="22"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="5" t="s">
         <v>46</v>
       </c>
@@ -3055,7 +3064,7 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="6">
-        <f t="shared" ref="B28:B60" si="1">ROW() -4</f>
+        <f t="shared" ref="B28:B61" si="1">ROW() -4</f>
         <v>24</v>
       </c>
       <c r="C28" s="20" t="s">
@@ -3085,7 +3094,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C29" s="21"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="5" t="s">
         <v>4</v>
       </c>
@@ -3108,7 +3117,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="C30" s="21"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="5" t="s">
         <v>5</v>
       </c>
@@ -3131,7 +3140,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="C31" s="22"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="5" t="s">
         <v>9</v>
       </c>
@@ -3179,7 +3188,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="C33" s="22"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="5" t="s">
         <v>44</v>
       </c>
@@ -3227,7 +3236,7 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="C35" s="21"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="5" t="s">
         <v>38</v>
       </c>
@@ -3250,7 +3259,7 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="C36" s="21"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="5" t="s">
         <v>40</v>
       </c>
@@ -3273,7 +3282,7 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="C37" s="21"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="5" t="s">
         <v>42</v>
       </c>
@@ -3296,7 +3305,7 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="C38" s="21"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="5" t="s">
         <v>48</v>
       </c>
@@ -3319,7 +3328,7 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="C39" s="21"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="5" t="s">
         <v>108</v>
       </c>
@@ -3342,7 +3351,7 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="C40" s="21"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="5" t="s">
         <v>109</v>
       </c>
@@ -3365,7 +3374,7 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="C41" s="21"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="5" t="s">
         <v>110</v>
       </c>
@@ -3388,7 +3397,7 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="C42" s="22"/>
+      <c r="C42" s="21"/>
       <c r="D42" s="5" t="s">
         <v>111</v>
       </c>
@@ -3436,7 +3445,7 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="C44" s="22"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="5" t="s">
         <v>52</v>
       </c>
@@ -3484,7 +3493,7 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="C46" s="21"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="5" t="s">
         <v>58</v>
       </c>
@@ -3507,7 +3516,7 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="C47" s="21"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="5" t="s">
         <v>55</v>
       </c>
@@ -3530,7 +3539,7 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="C48" s="21"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="5" t="s">
         <v>62</v>
       </c>
@@ -3553,7 +3562,7 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="C49" s="21"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="5" t="s">
         <v>63</v>
       </c>
@@ -3576,7 +3585,7 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="C50" s="21"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="5" t="s">
         <v>123</v>
       </c>
@@ -3597,7 +3606,7 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="C51" s="21"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="5" t="s">
         <v>124</v>
       </c>
@@ -3618,7 +3627,7 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="C52" s="21"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="5" t="s">
         <v>125</v>
       </c>
@@ -3641,7 +3650,7 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="C53" s="21"/>
+      <c r="C53" s="22"/>
       <c r="D53" s="5" t="s">
         <v>126</v>
       </c>
@@ -3664,7 +3673,7 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="C54" s="21"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="5" t="s">
         <v>127</v>
       </c>
@@ -3687,7 +3696,7 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="C55" s="21"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="5" t="s">
         <v>101</v>
       </c>
@@ -3710,7 +3719,7 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="C56" s="21"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="5" t="s">
         <v>119</v>
       </c>
@@ -3733,7 +3742,7 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="C57" s="21"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="5" t="s">
         <v>120</v>
       </c>
@@ -3741,9 +3750,11 @@
         <v>67</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>128</v>
+      </c>
       <c r="H57" s="14">
         <v>44355.5</v>
       </c>
@@ -3756,7 +3767,7 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="C58" s="21"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="5" t="s">
         <v>121</v>
       </c>
@@ -3764,9 +3775,11 @@
         <v>67</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>128</v>
+      </c>
       <c r="H58" s="14">
         <v>44356.5</v>
       </c>
@@ -3779,7 +3792,7 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="C59" s="22"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="5" t="s">
         <v>122</v>
       </c>
@@ -3787,9 +3800,11 @@
         <v>67</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>128</v>
+      </c>
       <c r="H59" s="14">
         <v>44357.5</v>
       </c>
@@ -3802,7 +3817,7 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -3823,8 +3838,11 @@
       </c>
     </row>
     <row r="61" spans="2:9">
-      <c r="B61" s="6"/>
-      <c r="C61" s="19" t="s">
+      <c r="B61" s="6">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>116</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -4067,132 +4085,132 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F29:F31 F1:F21 F45:F1048576">
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F23">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G31 G5:G26 G39:G42 G45:G83">
-    <cfRule type="containsBlanks" dxfId="22" priority="24">
+    <cfRule type="containsBlanks" dxfId="21" priority="24">
       <formula>LEN(TRIM(G5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsBlanks" dxfId="20" priority="21">
+    <cfRule type="containsBlanks" dxfId="19" priority="21">
       <formula>LEN(TRIM(G32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsBlanks" dxfId="18" priority="19">
+    <cfRule type="containsBlanks" dxfId="17" priority="19">
       <formula>LEN(TRIM(G34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsBlanks" dxfId="16" priority="17">
+    <cfRule type="containsBlanks" dxfId="15" priority="17">
       <formula>LEN(TRIM(G35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="containsBlanks" dxfId="14" priority="15">
+    <cfRule type="containsBlanks" dxfId="13" priority="15">
       <formula>LEN(TRIM(G36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="containsBlanks" dxfId="12" priority="13">
+    <cfRule type="containsBlanks" dxfId="11" priority="13">
       <formula>LEN(TRIM(G37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="containsBlanks" dxfId="10" priority="11">
+    <cfRule type="containsBlanks" dxfId="9" priority="11">
       <formula>LEN(TRIM(G33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsBlanks" dxfId="8" priority="9">
+    <cfRule type="containsBlanks" dxfId="7" priority="9">
       <formula>LEN(TRIM(G27))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:F42">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="containsBlanks" dxfId="6" priority="7">
+    <cfRule type="containsBlanks" dxfId="5" priority="7">
       <formula>LEN(TRIM(G38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+    <cfRule type="containsBlanks" dxfId="3" priority="5">
       <formula>LEN(TRIM(G43))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="containsBlanks" dxfId="3" priority="3">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(G44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
